--- a/Miscible_flooding/Relative Permeability Results Dead-Oil with Injection Water.xlsx
+++ b/Miscible_flooding/Relative Permeability Results Dead-Oil with Injection Water.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ishak\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fractional_flow\Miscible_flooding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDFDA4BB-7977-40A3-8D8B-ADF6A5F9EB26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{150A06CE-3EE2-4BEB-AD2C-AFCB2C30944E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="985" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4005" yWindow="1020" windowWidth="10245" windowHeight="8985" tabRatio="985" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gas-Oil MD-600 Sample 1" sheetId="29" r:id="rId1"/>
@@ -10542,7 +10542,6 @@
       <c:valAx>
         <c:axId val="109170688"/>
         <c:scaling>
-          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -31223,10 +31222,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B1:I61"/>
+  <dimension ref="B1:I60"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E7"/>
+    <sheetView topLeftCell="A29" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31808,7 +31807,7 @@
         <v>9.3531900000000001E-2</v>
       </c>
     </row>
-    <row r="49" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D49" s="4">
         <v>0.22358</v>
       </c>
@@ -31819,7 +31818,7 @@
         <v>0.102682</v>
       </c>
     </row>
-    <row r="50" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D50" s="4">
         <v>0.229463</v>
       </c>
@@ -31830,7 +31829,7 @@
         <v>0.112455</v>
       </c>
     </row>
-    <row r="51" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D51" s="4">
         <v>0.235347</v>
       </c>
@@ -31841,7 +31840,7 @@
         <v>0.122875</v>
       </c>
     </row>
-    <row r="52" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D52" s="4">
         <v>0.241231</v>
       </c>
@@ -31852,7 +31851,7 @@
         <v>0.133967</v>
       </c>
     </row>
-    <row r="53" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D53" s="4">
         <v>0.247114</v>
       </c>
@@ -31863,7 +31862,7 @@
         <v>0.145756</v>
       </c>
     </row>
-    <row r="54" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D54" s="4">
         <v>0.252998</v>
       </c>
@@ -31874,7 +31873,7 @@
         <v>0.15826799999999999</v>
       </c>
     </row>
-    <row r="55" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D55" s="4">
         <v>0.258882</v>
       </c>
@@ -31885,7 +31884,7 @@
         <v>0.17152899999999999</v>
       </c>
     </row>
-    <row r="56" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D56" s="4">
         <v>0.26476499999999997</v>
       </c>
@@ -31896,7 +31895,7 @@
         <v>0.18556600000000001</v>
       </c>
     </row>
-    <row r="57" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D57" s="4">
         <v>0.27064899999999997</v>
       </c>
@@ -31907,7 +31906,7 @@
         <v>0.200404</v>
       </c>
     </row>
-    <row r="58" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D58" s="4">
         <v>0.27653299999999997</v>
       </c>
@@ -31918,7 +31917,7 @@
         <v>0.21607100000000001</v>
       </c>
     </row>
-    <row r="59" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D59" s="4">
         <v>0.282416</v>
       </c>
@@ -31929,7 +31928,7 @@
         <v>0.232594</v>
       </c>
     </row>
-    <row r="60" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D60" s="12">
         <v>0.2883</v>
       </c>
@@ -31939,9 +31938,6 @@
       <c r="F60" s="12">
         <v>0.2571</v>
       </c>
-    </row>
-    <row r="61" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="I61" s="3"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D11:F60">
@@ -32684,10 +32680,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="B1:I61"/>
+  <dimension ref="B1:I60"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33268,7 +33264,7 @@
         <v>0.24773300000000001</v>
       </c>
     </row>
-    <row r="49" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D49" s="4">
         <v>0.277702</v>
       </c>
@@ -33279,7 +33275,7 @@
         <v>0.26481300000000002</v>
       </c>
     </row>
-    <row r="50" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D50" s="4">
         <v>0.28448400000000001</v>
       </c>
@@ -33290,7 +33286,7 @@
         <v>0.28258</v>
       </c>
     </row>
-    <row r="51" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D51" s="4">
         <v>0.291265</v>
       </c>
@@ -33301,7 +33297,7 @@
         <v>0.30104399999999998</v>
       </c>
     </row>
-    <row r="52" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D52" s="4">
         <v>0.29804700000000001</v>
       </c>
@@ -33312,7 +33308,7 @@
         <v>0.32021300000000003</v>
       </c>
     </row>
-    <row r="53" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D53" s="4">
         <v>0.30482900000000002</v>
       </c>
@@ -33323,7 +33319,7 @@
         <v>0.34009699999999998</v>
       </c>
     </row>
-    <row r="54" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D54" s="4">
         <v>0.31161</v>
       </c>
@@ -33334,7 +33330,7 @@
         <v>0.36070400000000002</v>
       </c>
     </row>
-    <row r="55" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D55" s="4">
         <v>0.31839200000000001</v>
       </c>
@@ -33345,7 +33341,7 @@
         <v>0.38204199999999999</v>
       </c>
     </row>
-    <row r="56" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D56" s="4">
         <v>0.32517299999999999</v>
       </c>
@@ -33356,7 +33352,7 @@
         <v>0.40412100000000001</v>
       </c>
     </row>
-    <row r="57" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D57" s="4">
         <v>0.331955</v>
       </c>
@@ -33367,7 +33363,7 @@
         <v>0.42694700000000002</v>
       </c>
     </row>
-    <row r="58" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D58" s="4">
         <v>0.33873700000000001</v>
       </c>
@@ -33378,7 +33374,7 @@
         <v>0.45053100000000001</v>
       </c>
     </row>
-    <row r="59" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D59" s="4">
         <v>0.34551799999999999</v>
       </c>
@@ -33389,7 +33385,7 @@
         <v>0.474879</v>
       </c>
     </row>
-    <row r="60" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C60" s="3"/>
       <c r="D60" s="12">
         <v>0.3523</v>
@@ -33400,9 +33396,6 @@
       <c r="F60" s="12">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="61" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="I61" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -35608,7 +35601,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B1:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H58" sqref="H58"/>
     </sheetView>
   </sheetViews>
